--- a/target/test-classes/Excel/New Microsoft Excel WorksheetQDMS.xlsx
+++ b/target/test-classes/Excel/New Microsoft Excel WorksheetQDMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation_Workspace\QDMS\src\test\java\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850F12F-B239-498D-94F6-285619578300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DDE4E1-B21C-4661-85D7-F3307DDD824D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
